--- a/documents/Hardware_필요 품목.xlsx
+++ b/documents/Hardware_필요 품목.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chamc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Capstone\CapstoneDesignDC\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC7CE51-F015-48EA-9E75-44556A5ACFDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E8751805-B402-4E34-8BE7-6A272D4394CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>물품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,18 +62,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보조배터리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.devicemart.co.kr/goods/view?no=12372315</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://item.gmarket.co.kr/DetailView/Item.asp?goodscode=911065717&amp;GoodsSale=Y&amp;jaehuid=200002657&amp;service_id=pcdn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>릴레이 확장모듈 5V - 1CH (PP-A002)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T형 분배 커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>500원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,20 +101,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.11st.co.kr/products/2421954336?trTypeCd=21&amp;trCtgrNo=585021</t>
-  </si>
-  <si>
-    <t>아두이노 점퍼케이블 (옵션 : 10cm-암-숫)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.11st.co.kr/products/3299301424?utm_medium=%EA%B2%80%EC%83%89&amp;utm_source=%EA%B5%AC%EA%B8%80_PC_S_%EC%87%BC%ED%95%91&amp;utm_campaign=%EA%B5%AC%EA%B8%80%EC%87%BC%ED%95%91PC+%EC%B6%94%EA%B0%80%EC%9E%91%EC%97%85&amp;utm_term=</t>
   </si>
   <si>
-    <t>C-Type 커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.11st.co.kr/products/2815395131?utm_medium=%EA%B2%80%EC%83%89&amp;utm_source=%EA%B5%AC%EA%B8%80_PC_S_%EC%87%BC%ED%95%91&amp;utm_campaign=%EA%B5%AC%EA%B8%80%EC%87%BC%ED%95%91PC+%EC%B6%94%EA%B0%80%EC%9E%91%EC%97%85&amp;utm_term=</t>
   </si>
   <si>
@@ -138,14 +114,6 @@
     <t>http://shopping.interpark.com/product/productInfo.do?prdNo=4581105238</t>
   </si>
   <si>
-    <t>USB 커넥터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raspberry-Pi 3 model B (옵션 : 라즈베리파이3 단품)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.11st.co.kr/products/2516095658?trTypeCd=21&amp;trCtgrNo=585021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://front.wemakeprice.com/product/809646421?utm_source=google_ss&amp;utm_medium=cpc&amp;utm_campaign=r_sa&amp;gclid=CjwKCAjwu5CDBhB9EiwA0w6sLbExDhpT_qlp_FubtgF03Q3_uTDV77LBZfmg5rEMNRtDEsh0PkAqmRoCNYcQAvD_BwE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>충전모듈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,24 +154,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>축전지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DC 스마트그리드 홈 네트워크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>팀명: 지상보다 지하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro SD Card(16gb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=34404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1330154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=12237605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lotteon.com/p/product/LO1035194830?sitmNo=LO1035194830_1035194831&amp;ch_no=100173&amp;ch_dtl_no=1000548&amp;dp_infw_cd=CHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arduino 아답터(12V/1.5A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1330492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 무선 wifi 모듈(1MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.icbanq.com/P008165046?gclid=CjwKCAjwu5CDBhB9EiwA0w6sLQpMmywVzmcQJgDZHhtFmbv0jyG4OhCP1WcDJOB3Olk_JQbaYeB0-xoChhEQAvD_BwE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB 2.0 와이파이 동글(802.11n 150Mbps U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arduino Uno (R3) (5V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arduino USB 케이블(1.5m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T형 분배 커넥터(1.5~2.5mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-Type 커넥터(USB 3.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB 커넥터(2A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="#,##0&quot;원&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -243,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,6 +290,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -275,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,11 +330,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,34 +653,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37431061-B910-4E9C-85EE-799CB759AEE1}">
-  <dimension ref="B1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="45.875" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="47.875" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="48.625" customWidth="1"/>
+    <col min="2" max="2" width="45.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" customWidth="1"/>
+    <col min="4" max="4" width="47.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="6" width="48.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,252 +697,307 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
+      <c r="D4" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E4" s="5">
-        <v>51150</v>
+        <v>21000</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5">
         <v>13000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5">
         <v>3600</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5">
         <v>1430</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5">
         <v>8560</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
         <v>17180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5">
         <v>500</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5">
         <v>500</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5">
         <v>2400</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E16" s="5">
-        <v>29800</v>
+        <v>7900</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5">
+        <v>16350</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="E18" s="5">
+        <v>5900</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="5">
-        <f>SUM(E4:E16)</f>
-        <v>129720</v>
-      </c>
-      <c r="F17" s="1"/>
+      <c r="E20" s="5">
+        <f>SUM(E4:E19)</f>
+        <v>103520</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{2D95D91D-D794-4B35-AF4C-3175FF710E22}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{058B9993-4A67-4949-8273-28E4EBFE9C9C}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{4D437687-8B58-4170-9E60-1CBEA70C0544}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{5D1B03D6-CAFE-4217-B965-DADF513C1D44}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{40B8334E-BCBB-4686-9C7B-200CDEEB0B04}"/>
-    <hyperlink ref="D8" r:id="rId6" display="http://www.11st.co.kr/products/2044896518?utm_medium=%EA%B2%80%EC%83%89&amp;gclid=CjwKCAjwu5CDBhB9EiwA0w6sLdFUNmB_kwCQl3BBxBnQIw_bCKEPKtgGHl_nImdQLKfV5NQyv6XsYRoCwG4QAvD_BwE&amp;utm_source=%EA%B5%AC%EA%B8%80_PC_S_%EC%87%BC%ED%95%91&amp;utm_campaign=%EA%B5%AC%EA%B8%80%EC%87%BC%ED%95%91PC+%EC%B6%94%EA%B0%80%EC%9E%91%EC%97%85&amp;utm_term=" xr:uid="{27F6ACED-AA6F-4D38-8AA1-A80BB183C374}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{71A04C72-8FA2-43BD-BCE0-D07D00027F61}"/>
-    <hyperlink ref="D16" r:id="rId8" xr:uid="{0E677F21-C103-4A10-9D9E-234B8950DF9F}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5" display="http://www.11st.co.kr/products/2044896518?utm_medium=%EA%B2%80%EC%83%89&amp;gclid=CjwKCAjwu5CDBhB9EiwA0w6sLdFUNmB_kwCQl3BBxBnQIw_bCKEPKtgGHl_nImdQLKfV5NQyv6XsYRoCwG4QAvD_BwE&amp;utm_source=%EA%B5%AC%EA%B8%80_PC_S_%EC%87%BC%ED%95%91&amp;utm_campaign=%EA%B5%AC%EA%B8%80%EC%87%BC%ED%95%91PC+%EC%B6%94%EA%B0%80%EC%9E%91%EC%97%85&amp;utm_term="/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D18" r:id="rId10"/>
+    <hyperlink ref="D17" r:id="rId11"/>
+    <hyperlink ref="D16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>